--- a/public/report/MolassesReport.xlsx
+++ b/public/report/MolassesReport.xlsx
@@ -112,49 +112,76 @@
     <t xml:space="preserve">บริษัท มงคลสมัย จำกัด</t>
   </si>
   <si>
-    <t xml:space="preserve">รายงานการรับกากน้ำตาล ประจำวันที่ 23 พ.ย. 2566</t>
+    <t xml:space="preserve">รายงานการรับกากน้ำตาล ประจำวันที่ 31 ม.ค. 2567 ถึง 8 ก.พ. 2567</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">null</t>
+    <t xml:space="preserve">1233New, car 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202401310000</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">202311170000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20902912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-11-2023</t>
+    <t xml:space="preserve">31-01-2024</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Test 1</t>
   </si>
   <si>
-    <t xml:space="preserve">17:03</t>
+    <t xml:space="preserve">ทดสอบขนส่งจำกัด 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:49</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">1233A, กท 23-2323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202311170002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ทดสอบขนส่งจำกัด 1</t>
+    <t xml:space="preserve">1233New, sss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202401310010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mo no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test excel 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1233New, test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202401310013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1233New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202402060000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-02-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:46</t>
   </si>
   <si>
     <t xml:space="preserve">รวม</t>
@@ -247,6 +274,44 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills>
     <fill>
@@ -255,6 +320,44 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
     <fill/>
     <fill/>
     <fill/>
@@ -655,6 +758,272 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -806,30 +1175,144 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="42" fillId="40" borderId="40" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="43" fillId="41" borderId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="44" fillId="42" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="45" fillId="43" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="46" fillId="44" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="47" fillId="45" borderId="45" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="48" fillId="46" borderId="46" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="49" fillId="47" borderId="47" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="50" fillId="48" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="51" fillId="49" borderId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="52" fillId="50" borderId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="53" fillId="51" borderId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="54" fillId="52" borderId="52" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="55" fillId="53" borderId="53" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="56" fillId="54" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="57" fillId="55" borderId="55" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="58" fillId="56" borderId="56" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="59" fillId="57" borderId="57" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="60" fillId="58" borderId="58" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="61" fillId="59" borderId="59" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="62" fillId="60" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="63" fillId="61" borderId="61" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="64" fillId="62" borderId="62" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="65" fillId="63" borderId="63" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="66" fillId="64" borderId="64" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="67" fillId="65" borderId="65" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="68" fillId="66" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="69" fillId="67" borderId="67" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="70" fillId="68" borderId="68" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="71" fillId="69" borderId="69" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="72" fillId="70" borderId="70" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="73" fillId="71" borderId="71" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="74" fillId="72" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="75" fillId="73" borderId="73" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="76" fillId="74" borderId="74" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="77" fillId="75" borderId="75" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="78" fillId="76" borderId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="79" fillId="77" borderId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="80" fillId="78" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="43" fillId="41" borderId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="44" fillId="42" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="81" fillId="79" borderId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="82" fillId="80" borderId="80" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="45" fillId="43" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="46" fillId="44" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="47" fillId="45" borderId="45" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="48" fillId="46" borderId="46" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="49" fillId="47" borderId="47" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="50" fillId="48" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="83" fillId="81" borderId="81" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="84" fillId="82" borderId="82" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="85" fillId="83" borderId="83" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="86" fillId="84" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="87" fillId="85" borderId="85" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="88" fillId="86" borderId="86" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1331,88 +1814,74 @@
       <c r="F7" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="G7" t="s" s="15">
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="H7" t="s" s="16">
+      <c r="J7" s="18"/>
+      <c r="K7" t="s" s="19">
         <v>31</v>
       </c>
-      <c r="I7" t="s" s="17">
+      <c r="L7" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="J7" t="s" s="18">
+      <c r="M7" s="21">
+        <v>4500</v>
+      </c>
+      <c r="N7" s="22">
+        <v>5630</v>
+      </c>
+      <c r="O7" s="23">
+        <v>-1130</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" t="s" s="29">
         <v>33</v>
-      </c>
-      <c r="K7" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>60</v>
-      </c>
-      <c r="R7" s="26">
-        <v>29</v>
-      </c>
-      <c r="S7" s="27">
-        <v>4</v>
-      </c>
-      <c r="T7" s="28">
-        <v>25</v>
-      </c>
-      <c r="U7" t="s" s="29">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="30">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s" s="31">
         <v>36</v>
-      </c>
-      <c r="D8" t="s" s="31">
-        <v>27</v>
       </c>
       <c r="E8" t="s" s="32">
         <v>37</v>
       </c>
       <c r="F8" t="s" s="33">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
       <c r="I8" t="s" s="36">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s" s="37">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s" s="38">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s" s="39">
         <v>32</v>
       </c>
-      <c r="J8" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s" s="38">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s" s="39">
-        <v>38</v>
-      </c>
       <c r="M8" s="40">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="N8" s="41">
-        <v>100</v>
+        <v>5630</v>
       </c>
       <c r="O8" s="42">
-        <v>900</v>
+        <v>-630</v>
       </c>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
@@ -1420,37 +1889,123 @@
       <c r="S8" s="46"/>
       <c r="T8" s="47"/>
       <c r="U8" t="s" s="48">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="I9" t="s" s="49">
-        <v>39</v>
-      </c>
-      <c r="J9" s="50">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s" s="51">
-        <v>40</v>
-      </c>
-      <c r="M9" s="52">
-        <v>1000</v>
-      </c>
-      <c r="N9" s="53">
-        <v>100</v>
-      </c>
-      <c r="O9" s="54">
-        <v>900</v>
-      </c>
-      <c r="Q9" s="55">
-        <v>60</v>
-      </c>
-      <c r="R9" s="56">
+      <c r="B9" t="s" s="49">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s" s="50">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="51">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s" s="52">
         <v>29</v>
       </c>
-      <c r="S9" s="57">
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" t="s" s="55">
+        <v>30</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" t="s" s="57">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s" s="58">
+        <v>32</v>
+      </c>
+      <c r="M9" s="59">
+        <v>26000</v>
+      </c>
+      <c r="N9" s="60">
+        <v>25500</v>
+      </c>
+      <c r="O9" s="61">
+        <v>500</v>
+      </c>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="66"/>
+      <c r="U9" t="s" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="68">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s" s="69">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s" s="70">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="71">
+        <v>29</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" t="s" s="74">
+        <v>46</v>
+      </c>
+      <c r="J10" s="75"/>
+      <c r="K10" t="s" s="76">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s" s="77">
+        <v>32</v>
+      </c>
+      <c r="M10" s="78">
+        <v>20000</v>
+      </c>
+      <c r="N10" s="79">
+        <v>50</v>
+      </c>
+      <c r="O10" s="80">
+        <v>19950</v>
+      </c>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="85"/>
+      <c r="U10" t="s" s="86">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" t="s" s="87">
+        <v>48</v>
+      </c>
+      <c r="J11" s="88">
         <v>4</v>
       </c>
+      <c r="K11" t="s" s="89">
+        <v>49</v>
+      </c>
+      <c r="M11" s="90">
+        <v>55500</v>
+      </c>
+      <c r="N11" s="91">
+        <v>36810</v>
+      </c>
+      <c r="O11" s="92">
+        <v>18690</v>
+      </c>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="20">
